--- a/gun-low/Excel/Task_任务表.xlsx
+++ b/gun-low/Excel/Task_任务表.xlsx
@@ -34,7 +34,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -65,7 +65,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,7 +117,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -143,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -153,10 +181,16 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -486,10 +520,10 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
@@ -504,6 +538,7 @@
     <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="16"/>
   </cols>
   <sheetData>
     <row customHeight="true" ht="23" r="1">
@@ -514,7 +549,7 @@
         <v>string</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>int</v>
+        <v>string</v>
       </c>
       <c r="D1" s="1" t="str">
         <v>int</v>
@@ -531,7 +566,9 @@
       <c r="H1" s="1" t="str">
         <v>int</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="1" t="str">
+        <v>int</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -542,33 +579,36 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
       <c r="B2" s="1" t="str">
+        <v>Desc</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <v>Name</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="D2" s="1" t="str">
         <v>TaskType</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="E2" s="1" t="str">
         <v>TaskItemType</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="F2" s="1" t="str">
         <v>NextId</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="G2" s="1" t="str">
         <v>TragetNum</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="H2" s="1" t="str">
         <v>Coin</v>
       </c>
-      <c r="H2" s="1" t="str">
+      <c r="I2" s="1" t="str">
         <v>Diamond</v>
       </c>
-      <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -579,6 +619,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="3">
       <c r="A3" s="1" t="str">
@@ -588,11 +629,14 @@
         <v>任务名字</v>
       </c>
       <c r="C3" s="1" t="str">
+        <v>任务名字</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <v>任务类型
 1-每日任务
 2-每周任务</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="E3" s="1" t="str">
         <v>任务类型
 1-每日在线时长5分钟
 2-每日在线时长10分钟
@@ -621,19 +665,18 @@
 107-每周登录7天
 200-每日登录游戏</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="F3" s="1" t="str">
         <v>下一阶段的任务ID</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="G3" s="1" t="str">
         <v>目标数</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="H3" s="1" t="str">
         <v>获得金币</v>
       </c>
-      <c r="H3" s="1" t="str">
+      <c r="I3" s="1" t="str">
         <v>获得钻石</v>
       </c>
-      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -644,11 +687,14 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6" t="str">
+        <v>Language</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -665,6 +711,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="5">
       <c r="A5" s="1">
@@ -673,23 +720,25 @@
       <c r="B5" s="1" t="str">
         <v>每日登录游戏（{0}/{1}）</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
+      <c r="C5" s="3" t="str">
+        <v>Dailylogintothegame</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -700,31 +749,34 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="4" t="str">
         <v>每日在线时长5分钟（{0}/{1}）</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
         <v>11</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3">
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="4">
         <v>500</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -735,31 +787,34 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="4" t="str">
         <v>每日在线时长10分钟（{0}/{1}）</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="4">
         <v>1000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -770,31 +825,34 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="4" t="str">
         <v>每日在线时长15分钟（{0}/{1}）</v>
       </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
         <v>13</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>15</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="4">
         <v>1500</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>15</v>
       </c>
-      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -805,31 +863,34 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="4" t="str">
         <v>每日在线时长20分钟（{0}/{1}）</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
         <v>14</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
         <v>20</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="4">
         <v>2000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>20</v>
       </c>
-      <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -840,31 +901,34 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>15</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="5" t="str">
         <v>每日在线时长25分钟（{0}/{1}）</v>
       </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
         <v>15</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <v>25</v>
       </c>
-      <c r="G10" s="4">
+      <c r="H10" s="5">
         <v>2500</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>25</v>
       </c>
-      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -875,31 +939,34 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="5" t="str">
         <v>每日在线时长30分钟（{0}/{1}）</v>
       </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
         <v>16</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
         <v>30</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="5">
         <v>3000</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>30</v>
       </c>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -910,31 +977,34 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>17</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="5" t="str">
         <v>每日在线时长40分钟（{0}/{1}）</v>
       </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
         <v>17</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
         <v>40</v>
       </c>
-      <c r="G12" s="4">
+      <c r="H12" s="5">
         <v>4000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>40</v>
       </c>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -945,31 +1015,34 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>18</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="5" t="str">
         <v>每日在线时长50分钟（{0}/{1}）</v>
       </c>
-      <c r="C13" s="4">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
         <v>18</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <v>50</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="5">
         <v>5000</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>50</v>
       </c>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -980,31 +1053,34 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="5" t="str">
         <v>每日在线时长60分钟（{0}/{1}）</v>
       </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="3" t="str">
+        <v>Dailyonlinedurationminutes</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
         <v>19</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
         <v>60</v>
       </c>
-      <c r="G14" s="4">
+      <c r="H14" s="5">
         <v>6000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>60</v>
       </c>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1015,6 +1091,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="15">
       <c r="A15" s="2">
@@ -1023,23 +1100,25 @@
       <c r="B15" s="2" t="str">
         <v>每日击败1个玩家（{0}/{1}）</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
+      <c r="C15" s="3" t="str">
+        <v>Defeatplayersdaily</v>
       </c>
       <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
         <v>31</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
         <v>100</v>
       </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1050,6 +1129,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="16">
       <c r="A16" s="2">
@@ -1058,23 +1138,25 @@
       <c r="B16" s="2" t="str">
         <v>每日击败5个玩家（{0}/{1}）</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
+      <c r="C16" s="3" t="str">
+        <v>Defeatplayersdaily</v>
       </c>
       <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>32</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>500</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>5</v>
       </c>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1085,6 +1167,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="17">
       <c r="A17" s="2">
@@ -1093,23 +1176,25 @@
       <c r="B17" s="2" t="str">
         <v>每日击败10个玩家（{0}/{1}）</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
+      <c r="C17" s="3" t="str">
+        <v>Defeatplayersdaily</v>
       </c>
       <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
         <v>33</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
         <v>10</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>1000</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1120,6 +1205,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="18">
       <c r="A18" s="2">
@@ -1128,23 +1214,25 @@
       <c r="B18" s="2" t="str">
         <v>每日击败20个玩家（{0}/{1}）</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
+      <c r="C18" s="3" t="str">
+        <v>Defeatplayersdaily</v>
       </c>
       <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
         <v>34</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2">
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
         <v>20</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>2000</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>20</v>
       </c>
-      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1155,6 +1243,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="19">
       <c r="A19" s="2">
@@ -1163,23 +1252,25 @@
       <c r="B19" s="2" t="str">
         <v>每日击败30个玩家（{0}/{1}）</v>
       </c>
-      <c r="C19" s="2">
-        <v>1</v>
+      <c r="C19" s="3" t="str">
+        <v>Defeatplayersdaily</v>
       </c>
       <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
         <v>35</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
         <v>30</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>4000</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>30</v>
       </c>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1190,6 +1281,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="20">
       <c r="A20" s="2">
@@ -1198,23 +1290,25 @@
       <c r="B20" s="2" t="str">
         <v>每日击败50个玩家（{0}/{1}）</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
+      <c r="C20" s="3" t="str">
+        <v>Defeatplayersdaily</v>
       </c>
       <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
         <v>36</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
         <v>50</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>10000</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>50</v>
       </c>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1225,6 +1319,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="21">
       <c r="A21" s="2">
@@ -1233,23 +1328,25 @@
       <c r="B21" s="2" t="str">
         <v>每日击败100个玩家（{0}/{1}）</v>
       </c>
-      <c r="C21" s="2">
-        <v>1</v>
+      <c r="C21" s="3" t="str">
+        <v>Defeatplayersdaily</v>
       </c>
       <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
         <v>37</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
         <v>100</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>10000</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>100</v>
       </c>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1260,6 +1357,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="22">
       <c r="A22" s="2">
@@ -1268,23 +1366,25 @@
       <c r="B22" s="2" t="str">
         <v>每日击败200个玩家（{0}/{1}）</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
+      <c r="C22" s="3" t="str">
+        <v>Defeatplayersdaily</v>
       </c>
       <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
         <v>38</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2">
         <v>200</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>10000</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>200</v>
       </c>
-      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1295,6 +1395,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="23">
       <c r="A23" s="2">
@@ -1303,23 +1404,25 @@
       <c r="B23" s="2" t="str">
         <v>每日击败300个玩家（{0}/{1}）</v>
       </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="C23" s="3" t="str">
+        <v>Defeatplayersdaily</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
         <v>39</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
         <v>300</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>10000</v>
       </c>
-      <c r="H23" s="1">
+      <c r="I23" s="1">
         <v>300</v>
       </c>
-      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1330,6 +1433,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="24">
       <c r="A24" s="2">
@@ -1338,23 +1442,25 @@
       <c r="B24" s="1" t="str">
         <v>每周登录1天（{0}/{1}）</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3" t="str">
+        <v>Logindaysperweek</v>
+      </c>
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E24" s="2">
         <v>101</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
         <v>10000</v>
       </c>
-      <c r="H24" s="1">
+      <c r="I24" s="1">
         <v>100</v>
       </c>
-      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1365,6 +1471,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="25">
       <c r="A25" s="2">
@@ -1373,23 +1480,25 @@
       <c r="B25" s="1" t="str">
         <v>每周登录2天（{0}/{1}）</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3" t="str">
+        <v>Logindaysperweek</v>
+      </c>
+      <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="E25" s="2">
         <v>102</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
         <v>2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>20000</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>200</v>
       </c>
-      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1400,6 +1509,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="26">
       <c r="A26" s="2">
@@ -1408,23 +1518,25 @@
       <c r="B26" s="1" t="str">
         <v>每周登录3天（{0}/{1}）</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3" t="str">
+        <v>Logindaysperweek</v>
+      </c>
+      <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="E26" s="2">
         <v>103</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
         <v>3</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>30000</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>300</v>
       </c>
-      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1435,6 +1547,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="27">
       <c r="A27" s="2">
@@ -1443,23 +1556,25 @@
       <c r="B27" s="1" t="str">
         <v>每周登录4天（{0}/{1}）</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3" t="str">
+        <v>Logindaysperweek</v>
+      </c>
+      <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="D27" s="2">
+      <c r="E27" s="2">
         <v>104</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
         <v>4</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>40000</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>400</v>
       </c>
-      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1470,6 +1585,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="28">
       <c r="A28" s="2">
@@ -1478,23 +1594,25 @@
       <c r="B28" s="1" t="str">
         <v>每周登录5天（{0}/{1}）</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3" t="str">
+        <v>Logindaysperweek</v>
+      </c>
+      <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="D28" s="2">
+      <c r="E28" s="2">
         <v>105</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1">
+      <c r="F28" s="1"/>
+      <c r="G28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>50000</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>500</v>
       </c>
-      <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1505,6 +1623,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="29">
       <c r="A29" s="2">
@@ -1513,23 +1632,25 @@
       <c r="B29" s="1" t="str">
         <v>每周登录6天（{0}/{1}）</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3" t="str">
+        <v>Logindaysperweek</v>
+      </c>
+      <c r="D29" s="1">
         <v>2</v>
       </c>
-      <c r="D29" s="2">
+      <c r="E29" s="2">
         <v>106</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
+      <c r="F29" s="1"/>
+      <c r="G29" s="1">
         <v>6</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>60000</v>
       </c>
-      <c r="H29" s="1">
+      <c r="I29" s="1">
         <v>600</v>
       </c>
-      <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1540,6 +1661,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
     </row>
     <row customHeight="true" ht="23" r="30">
       <c r="A30" s="2">
@@ -1548,23 +1670,25 @@
       <c r="B30" s="1" t="str">
         <v>每周登录7天（{0}/{1}）</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3" t="str">
+        <v>Logindaysperweek</v>
+      </c>
+      <c r="D30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="2">
+      <c r="E30" s="2">
         <v>107</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1">
         <v>7</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>70000</v>
       </c>
-      <c r="H30" s="1">
+      <c r="I30" s="1">
         <v>700</v>
       </c>
-      <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1575,6 +1699,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
